--- a/files/Tarefa Notas.xlsx
+++ b/files/Tarefa Notas.xlsx
@@ -1,31 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaom\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaom\Documents\formacaotic.pt\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F37862-2547-4282-9F60-C34811C5F0D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3688DDAA-83E6-4F12-9E9A-D344865DDC04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Folha2" sheetId="2" r:id="rId2"/>
+    <sheet name="Folha3" sheetId="3" r:id="rId3"/>
+    <sheet name="Folha4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="48">
   <si>
     <t>ID</t>
   </si>
@@ -97,16 +111,112 @@
   </si>
   <si>
     <t>Louise</t>
+  </si>
+  <si>
+    <t>Nota mais alta</t>
+  </si>
+  <si>
+    <t>Média das notas maiores que 10</t>
+  </si>
+  <si>
+    <t>Média das notas menores que 10</t>
+  </si>
+  <si>
+    <t>Nota mais baixa</t>
+  </si>
+  <si>
+    <t>Quantos alunos tem a turma?</t>
+  </si>
+  <si>
+    <t>Total de Faturação</t>
+  </si>
+  <si>
+    <t>Total de Vendas</t>
+  </si>
+  <si>
+    <t>Total de Tipo de Produtos</t>
+  </si>
+  <si>
+    <t>Total de Tipo de Produtos que venderam mais de 4 unidades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preço Médio dos Produtos </t>
+  </si>
+  <si>
+    <t>Preço</t>
+  </si>
+  <si>
+    <t>Vendas</t>
+  </si>
+  <si>
+    <t>Faturação</t>
+  </si>
+  <si>
+    <t>Houve Faturação?</t>
+  </si>
+  <si>
+    <t>Preço mais baixo</t>
+  </si>
+  <si>
+    <t>Preço mais alto</t>
+  </si>
+  <si>
+    <t>Nome Produto</t>
+  </si>
+  <si>
+    <t>Produto 1</t>
+  </si>
+  <si>
+    <t>Produto 2</t>
+  </si>
+  <si>
+    <t>Produto 3</t>
+  </si>
+  <si>
+    <t>Produto 4</t>
+  </si>
+  <si>
+    <t>Produto 5</t>
+  </si>
+  <si>
+    <t>Produto 6</t>
+  </si>
+  <si>
+    <t>Produto 7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -120,7 +230,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -128,17 +238,100 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -416,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -850,4 +1043,374 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2E988C-18E2-4511-BD65-448C1F125BDC}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.81640625" customWidth="1"/>
+    <col min="2" max="2" width="14.81640625" customWidth="1"/>
+    <col min="3" max="3" width="3.90625" customWidth="1"/>
+    <col min="4" max="4" width="30.26953125" customWidth="1"/>
+    <col min="6" max="6" width="9.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="str">
+        <f>IF(A2&gt;=10,"Passou","Chumbou")</f>
+        <v>Chumbou</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="1">
+        <f>MAX(A2:A9)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="str">
+        <f t="shared" ref="B3:B9" si="0">IF(A3&gt;=10,"Passou","Chumbou")</f>
+        <v>Chumbou</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="1">
+        <f>MIN(A2:A9)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Passou</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1">
+        <f>AVERAGEIF(A2:A9,"&gt;10")</f>
+        <v>15.666666666666666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Passou</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1">
+        <f>AVERAGEIF(A2:A9,"&lt;10")</f>
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Passou</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="1">
+        <f>COUNT(A2:A9)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Chumbou</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Chumbou</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Passou</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B9">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"Passou"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"Chumbou"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A9">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4206FFB-9A5A-4F4E-A691-D8DB9C859C88}">
+  <dimension ref="B2:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="52.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD96392-F0E1-406C-BDEA-323D3C160E95}">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.7265625" customWidth="1"/>
+    <col min="7" max="7" width="22.1796875" customWidth="1"/>
+    <col min="8" max="8" width="8.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="4">
+        <v>890</v>
+      </c>
+      <c r="C2" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1500</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="4">
+        <v>25</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="4">
+        <v>60</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="4">
+        <v>70</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="4">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/files/Tarefa Notas.xlsx
+++ b/files/Tarefa Notas.xlsx
@@ -8,15 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaom\Documents\formacaotic.pt\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3688DDAA-83E6-4F12-9E9A-D344865DDC04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FC33A9-3582-4437-A556-1178861B4389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
-    <sheet name="Folha2" sheetId="2" r:id="rId2"/>
-    <sheet name="Folha3" sheetId="3" r:id="rId3"/>
-    <sheet name="Folha4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
   <si>
     <t>ID</t>
   </si>
@@ -111,112 +108,16 @@
   </si>
   <si>
     <t>Louise</t>
-  </si>
-  <si>
-    <t>Nota mais alta</t>
-  </si>
-  <si>
-    <t>Média das notas maiores que 10</t>
-  </si>
-  <si>
-    <t>Média das notas menores que 10</t>
-  </si>
-  <si>
-    <t>Nota mais baixa</t>
-  </si>
-  <si>
-    <t>Quantos alunos tem a turma?</t>
-  </si>
-  <si>
-    <t>Total de Faturação</t>
-  </si>
-  <si>
-    <t>Total de Vendas</t>
-  </si>
-  <si>
-    <t>Total de Tipo de Produtos</t>
-  </si>
-  <si>
-    <t>Total de Tipo de Produtos que venderam mais de 4 unidades</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preço Médio dos Produtos </t>
-  </si>
-  <si>
-    <t>Preço</t>
-  </si>
-  <si>
-    <t>Vendas</t>
-  </si>
-  <si>
-    <t>Faturação</t>
-  </si>
-  <si>
-    <t>Houve Faturação?</t>
-  </si>
-  <si>
-    <t>Preço mais baixo</t>
-  </si>
-  <si>
-    <t>Preço mais alto</t>
-  </si>
-  <si>
-    <t>Nome Produto</t>
-  </si>
-  <si>
-    <t>Produto 1</t>
-  </si>
-  <si>
-    <t>Produto 2</t>
-  </si>
-  <si>
-    <t>Produto 3</t>
-  </si>
-  <si>
-    <t>Produto 4</t>
-  </si>
-  <si>
-    <t>Produto 5</t>
-  </si>
-  <si>
-    <t>Produto 6</t>
-  </si>
-  <si>
-    <t>Produto 7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-  </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -230,7 +131,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -238,100 +139,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -609,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1043,374 +861,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2E988C-18E2-4511-BD65-448C1F125BDC}">
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="8.81640625" customWidth="1"/>
-    <col min="2" max="2" width="14.81640625" customWidth="1"/>
-    <col min="3" max="3" width="3.90625" customWidth="1"/>
-    <col min="4" max="4" width="30.26953125" customWidth="1"/>
-    <col min="6" max="6" width="9.6328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="str">
-        <f>IF(A2&gt;=10,"Passou","Chumbou")</f>
-        <v>Chumbou</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="1">
-        <f>MAX(A2:A9)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="str">
-        <f t="shared" ref="B3:B9" si="0">IF(A3&gt;=10,"Passou","Chumbou")</f>
-        <v>Chumbou</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="1">
-        <f>MIN(A2:A9)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Passou</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="1">
-        <f>AVERAGEIF(A2:A9,"&gt;10")</f>
-        <v>15.666666666666666</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Passou</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="1">
-        <f>AVERAGEIF(A2:A9,"&lt;10")</f>
-        <v>7.75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>20</v>
-      </c>
-      <c r="B6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Passou</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="1">
-        <f>COUNT(A2:A9)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Chumbou</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Chumbou</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>15</v>
-      </c>
-      <c r="B9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Passou</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="B2:B9">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
-      <formula>"Passou"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
-      <formula>"Chumbou"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A9">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
-      <formula>9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4206FFB-9A5A-4F4E-A691-D8DB9C859C88}">
-  <dimension ref="B2:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="52.08984375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B2" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B3" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B4" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B5" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B6" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD96392-F0E1-406C-BDEA-323D3C160E95}">
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.7265625" customWidth="1"/>
-    <col min="7" max="7" width="22.1796875" customWidth="1"/>
-    <col min="8" max="8" width="8.1796875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="4">
-        <v>890</v>
-      </c>
-      <c r="C2" s="2">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="4">
-        <v>1500</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="4">
-        <v>25</v>
-      </c>
-      <c r="C4" s="2">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="4">
-        <v>60</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="4">
-        <v>70</v>
-      </c>
-      <c r="C6" s="2">
-        <v>5</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="4">
-        <v>15</v>
-      </c>
-      <c r="C8" s="2">
-        <v>20</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>